--- a/StructureDefinition-us-core-care-experience-preference.xlsx
+++ b/StructureDefinition-us-core-care-experience-preference.xlsx
@@ -537,7 +537,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Care Experience Preferences Codes (extensible)</t>
+    <t>(USCDI) Care experience preferences code</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -552,7 +552,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1115.11</t>
+    <t>http://www.fhir.org/guides/uscdi4-sandbox/ValueSet/uscore-care-experience-preference</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1666,7 +1666,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-us-core-care-experience-preference.xlsx
+++ b/StructureDefinition-us-core-care-experience-preference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/StructureDefinition/us-core-care-experience-preference</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-care-experience-preference</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20</t>
+    <t>2023-10-02</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -524,6 +524,14 @@
     <t>us-core</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/core/CodeSystem/us-core-category"/&gt;
+    &lt;code value="care-experience-preference"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
@@ -537,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Care experience preferences code</t>
+    <t>Care experience preferences code</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -549,10 +557,15 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/ValueSet/uscore-care-experience-preference</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="95541-9"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -795,6 +808,9 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -1208,11 +1224,11 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) US Core Profiles or other resource the observation is made from</t>
+    <t>(ADD'L USCDI) US Core Profiles or other resource the observation is made from</t>
   </si>
   <si>
     <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>
@@ -1267,9 +1283,6 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1666,7 +1679,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -3385,7 +3398,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>51</v>
@@ -3419,7 +3432,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3437,10 +3450,10 @@
         <v>139</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3493,14 +3506,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3522,16 +3535,16 @@
         <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3541,7 +3554,7 @@
         <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>41</v>
@@ -3556,11 +3569,11 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>41</v>
@@ -3578,7 +3591,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>50</v>
@@ -3593,30 +3606,30 @@
         <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3639,19 +3652,19 @@
         <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3700,7 +3713,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3715,19 +3728,19 @@
         <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>41</v>
@@ -3735,10 +3748,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3761,16 +3774,16 @@
         <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3820,7 +3833,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3841,13 +3854,13 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>41</v>
@@ -3855,14 +3868,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3881,19 +3894,19 @@
         <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3942,7 +3955,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3957,19 +3970,19 @@
         <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>41</v>
@@ -3977,14 +3990,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4003,19 +4016,19 @@
         <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
@@ -4064,7 +4077,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4079,19 +4092,19 @@
         <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>41</v>
@@ -4099,10 +4112,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4125,16 +4138,16 @@
         <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4184,7 +4197,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4205,13 +4218,13 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>41</v>
@@ -4219,10 +4232,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4245,17 +4258,17 @@
         <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4304,7 +4317,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4319,19 +4332,19 @@
         <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>41</v>
@@ -4339,10 +4352,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4365,19 +4378,19 @@
         <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4426,7 +4439,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4435,7 +4448,7 @@
         <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>62</v>
@@ -4444,27 +4457,27 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4490,16 +4503,16 @@
         <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4524,13 +4537,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
@@ -4548,7 +4561,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4557,7 +4570,7 @@
         <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>62</v>
@@ -4572,7 +4585,7 @@
         <v>93</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4583,14 +4596,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4612,16 +4625,16 @@
         <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4646,13 +4659,13 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4670,7 +4683,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4688,27 +4701,27 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4731,19 +4744,19 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -4792,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4813,10 +4826,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -4827,10 +4840,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4856,13 +4869,13 @@
         <v>148</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4888,13 +4901,13 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -4912,7 +4925,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4930,27 +4943,27 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4976,16 +4989,16 @@
         <v>148</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5010,13 +5023,13 @@
         <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>41</v>
@@ -5034,7 +5047,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5055,10 +5068,10 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5069,10 +5082,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5095,16 +5108,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5154,7 +5167,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5172,27 +5185,27 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5215,16 +5228,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5274,7 +5287,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5292,27 +5305,27 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5335,19 +5348,19 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5396,7 +5409,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5408,7 +5421,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5417,10 +5430,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5431,10 +5444,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5457,13 +5470,13 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5514,7 +5527,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5538,7 +5551,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5549,10 +5562,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5581,7 +5594,7 @@
         <v>97</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>99</v>
@@ -5634,7 +5647,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5658,7 +5671,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5669,14 +5682,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5698,10 +5711,10 @@
         <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>99</v>
@@ -5756,7 +5769,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5791,10 +5804,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5817,13 +5830,13 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5874,7 +5887,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5883,7 +5896,7 @@
         <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>62</v>
@@ -5895,10 +5908,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -5909,10 +5922,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5935,13 +5948,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5992,7 +6005,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6001,7 +6014,7 @@
         <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>62</v>
@@ -6013,10 +6026,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6027,10 +6040,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6056,16 +6069,16 @@
         <v>148</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6093,10 +6106,10 @@
         <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -6114,7 +6127,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6132,13 +6145,13 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6149,10 +6162,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6178,16 +6191,16 @@
         <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6212,13 +6225,13 @@
         <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>41</v>
@@ -6236,7 +6249,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6254,13 +6267,13 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6271,10 +6284,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6297,17 +6310,17 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6356,7 +6369,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6380,7 +6393,7 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6391,10 +6404,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6417,13 +6430,13 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6474,7 +6487,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6495,10 +6508,10 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6509,10 +6522,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6535,16 +6548,16 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6594,7 +6607,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6615,10 +6628,10 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -6629,10 +6642,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6646,7 +6659,7 @@
         <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>41</v>
@@ -6655,16 +6668,16 @@
         <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6714,7 +6727,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6735,10 +6748,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -6749,10 +6762,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6775,19 +6788,19 @@
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6836,7 +6849,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6857,10 +6870,10 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -6871,10 +6884,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6897,13 +6910,13 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6954,7 +6967,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6978,7 +6991,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -6989,10 +7002,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7021,7 +7034,7 @@
         <v>97</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>99</v>
@@ -7074,7 +7087,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7098,7 +7111,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7109,14 +7122,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7138,10 +7151,10 @@
         <v>96</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>99</v>
@@ -7196,7 +7209,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7231,10 +7244,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7260,16 +7273,16 @@
         <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7294,13 +7307,13 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>398</v>
+        <v>171</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7318,7 +7331,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>50</v>
@@ -7336,16 +7349,16 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>41</v>
@@ -7353,10 +7366,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7379,19 +7392,19 @@
         <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7440,7 +7453,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7458,27 +7471,27 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7504,16 +7517,16 @@
         <v>148</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7538,13 +7551,13 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -7562,7 +7575,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7571,7 +7584,7 @@
         <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>62</v>
@@ -7586,7 +7599,7 @@
         <v>93</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7597,14 +7610,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7626,16 +7639,16 @@
         <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7660,13 +7673,13 @@
         <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>41</v>
@@ -7684,7 +7697,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7702,27 +7715,27 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7748,16 +7761,16 @@
         <v>42</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7806,7 +7819,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7827,10 +7840,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-us-core-care-experience-preference.xlsx
+++ b/StructureDefinition-us-core-care-experience-preference.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02</t>
+    <t>2023-10-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t>(ADD'L USCDI) US Core Profiles or other resource the observation is made from</t>
+    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profiles or other resource the observation is made from</t>
   </si>
   <si>
     <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>

--- a/StructureDefinition-us-core-care-experience-preference.xlsx
+++ b/StructureDefinition-us-core-care-experience-preference.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>2023-10-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t>𝗔𝗗𝗗'𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profiles or other resource the observation is made from</t>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜: US Core Profiles or other resource the observation is made from</t>
   </si>
   <si>
     <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>

--- a/StructureDefinition-us-core-care-experience-preference.xlsx
+++ b/StructureDefinition-us-core-care-experience-preference.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12</t>
+    <t>2023-10-19</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-us-core-care-experience-preference.xlsx
+++ b/StructureDefinition-us-core-care-experience-preference.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19</t>
+    <t>2023-10-20</t>
   </si>
   <si>
     <t>Publisher</t>
